--- a/Bases/Navegacao_Menu.xlsx
+++ b/Bases/Navegacao_Menu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djdan\Documents\GitHub\Dash-Upmat\Bases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613EEE82-32A0-491A-A698-74DD8DB5D482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E48A56-B08A-4E32-857F-EE2E72B51449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="510" windowWidth="20730" windowHeight="11040" xr2:uid="{F34CCB2F-E2D2-4F06-83D1-8921BB237BC6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="23">
   <si>
     <t>Ordem</t>
   </si>
@@ -483,13 +483,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19030B0D-2A8E-4C3B-9DF6-B05FCD013344}">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -771,7 +774,7 @@
         <v>8</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>4</v>
@@ -782,7 +785,7 @@
         <v>8</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>5</v>
@@ -793,7 +796,7 @@
         <v>8</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>6</v>
@@ -804,7 +807,7 @@
         <v>8</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>7</v>
@@ -815,7 +818,7 @@
         <v>9</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>4</v>
@@ -826,7 +829,7 @@
         <v>9</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>5</v>
@@ -837,7 +840,7 @@
         <v>9</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>6</v>
@@ -848,7 +851,7 @@
         <v>9</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>7</v>
@@ -859,10 +862,10 @@
         <v>10</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -870,32 +873,32 @@
         <v>10</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -903,10 +906,10 @@
         <v>11</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -914,65 +917,65 @@
         <v>11</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -980,32 +983,32 @@
         <v>13</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1013,7 +1016,7 @@
         <v>14</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>6</v>
@@ -1021,13 +1024,13 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
+        <v>14</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="C49" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1035,10 +1038,10 @@
         <v>15</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1046,21 +1049,54 @@
         <v>15</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
+        <v>15</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="C52" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>16</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>16</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>16</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases/Navegacao_Menu.xlsx
+++ b/Bases/Navegacao_Menu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djdan\Documents\GitHub\Dash-Upmat\Bases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E48A56-B08A-4E32-857F-EE2E72B51449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0190EFB3-D59E-42F9-A6B6-312F72243BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="510" windowWidth="20730" windowHeight="11040" xr2:uid="{F34CCB2F-E2D2-4F06-83D1-8921BB237BC6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="24">
   <si>
     <t>Ordem</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Inscrições 2025 - Part1</t>
   </si>
   <si>
-    <t>bruna.marcelino@b3.com.br</t>
-  </si>
-  <si>
     <t>marketing@upmat.com.br</t>
   </si>
   <si>
@@ -65,9 +62,6 @@
     <t>Inscrições 2025 - Part2</t>
   </si>
   <si>
-    <t>Busca Inscrições 2025</t>
-  </si>
-  <si>
     <t>Busca Inscrições MKT 2025</t>
   </si>
   <si>
@@ -92,12 +86,6 @@
     <t>Conversão 2024 - Part2</t>
   </si>
   <si>
-    <t>Estudantes por Estado</t>
-  </si>
-  <si>
-    <t>Listagem Estudantes</t>
-  </si>
-  <si>
     <t>Professores</t>
   </si>
   <si>
@@ -105,13 +93,28 @@
   </si>
   <si>
     <t>Engajamento Professores</t>
+  </si>
+  <si>
+    <t>olitef@upmat.com.br</t>
+  </si>
+  <si>
+    <t>Estudantes</t>
+  </si>
+  <si>
+    <t>Professores B3</t>
+  </si>
+  <si>
+    <t>Busca Inscrições B3 2025</t>
+  </si>
+  <si>
+    <t>Listagem Prof x Estud</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +127,14 @@
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -143,14 +154,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -483,15 +497,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19030B0D-2A8E-4C3B-9DF6-B05FCD013344}">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -512,8 +527,8 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -524,7 +539,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -535,7 +550,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -546,7 +561,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -554,10 +569,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -565,10 +580,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -576,10 +591,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -587,10 +602,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -598,10 +613,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -609,10 +624,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -620,10 +635,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -631,10 +646,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -642,10 +657,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -653,10 +668,10 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -664,10 +679,10 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -675,10 +690,10 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -686,10 +701,10 @@
         <v>6</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -697,10 +712,10 @@
         <v>6</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -708,10 +723,10 @@
         <v>6</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -719,10 +734,10 @@
         <v>6</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -730,10 +745,10 @@
         <v>7</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -741,10 +756,10 @@
         <v>7</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -752,10 +767,10 @@
         <v>7</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -763,10 +778,10 @@
         <v>7</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -774,10 +789,10 @@
         <v>8</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -785,10 +800,10 @@
         <v>8</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -796,10 +811,10 @@
         <v>8</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -807,10 +822,10 @@
         <v>8</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -818,10 +833,10 @@
         <v>9</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -829,7 +844,7 @@
         <v>9</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>5</v>
@@ -837,65 +852,65 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>5</v>
@@ -903,203 +918,185 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
+        <v>14</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="C40" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
+        <v>14</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="C41" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
+        <v>15</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="C44" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
+        <v>15</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="C45" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
+        <v>16</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="C48" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
+        <v>16</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="C49" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
+        <v>17</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="C51" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
+        <v>17</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="C52" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>16</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>16</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{62D3FF96-5D89-4321-8515-02248824598A}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{EB434310-BFF0-47D7-B51A-1192EB07B25A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>